--- a/Unified_Data_Integration_System.xlsx
+++ b/Unified_Data_Integration_System.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8919FBC-2074-4A7E-A881-09395D6CE21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E69A4B-51D3-44D9-AEC5-B1F61AB3A0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="File Structure" sheetId="4" r:id="rId4"/>
     <sheet name="Challenges" sheetId="5" r:id="rId5"/>
     <sheet name="Implementation Plan" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="153">
   <si>
     <t>Project Name</t>
   </si>
@@ -341,13 +342,213 @@
   <si>
     <t>Unified Data Integration System (UDIS)
 - Project Management Plan</t>
+  </si>
+  <si>
+    <t>Key Activities</t>
+  </si>
+  <si>
+    <t>Data Sources</t>
+  </si>
+  <si>
+    <t>Automation Opportunities</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Current Effort</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>TM1, Taleo, Anaplan, Appian, Global Headcount, etc.</t>
+  </si>
+  <si>
+    <t>Automate data extraction using Python or APIs to pull data from source systems.</t>
+  </si>
+  <si>
+    <t>Reduces manual effort and errors; faster data collection.</t>
+  </si>
+  <si>
+    <t>Phase 1: Data Gathering</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Need to coordinate with BMs to gather data and understand current processes.</t>
+  </si>
+  <si>
+    <t>Identify Data Sources</t>
+  </si>
+  <si>
+    <t>Business Managers (BMs)</t>
+  </si>
+  <si>
+    <t>Create automated scripts or macros to gather data directly from BMs’ databases.</t>
+  </si>
+  <si>
+    <t>Streamlines communication and ensures consistent data sourcing.</t>
+  </si>
+  <si>
+    <t>Ensure alternative data sources are available if direct access isn’t possible.</t>
+  </si>
+  <si>
+    <t>Data Consolidation</t>
+  </si>
+  <si>
+    <t>Excel, CSV, SQL databases</t>
+  </si>
+  <si>
+    <t>Automate merging of data from multiple files into a master file.</t>
+  </si>
+  <si>
+    <t>Saves time, increases accuracy in data consolidation.</t>
+  </si>
+  <si>
+    <t>Phase 2: Automation Development</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Python's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or Excel macros to integrate data sources efficiently.</t>
+    </r>
+  </si>
+  <si>
+    <t>Validate and Track Data</t>
+  </si>
+  <si>
+    <t>TM1, Taleo, Headcount files</t>
+  </si>
+  <si>
+    <t>Use validation scripts to ensure accuracy in collected data.</t>
+  </si>
+  <si>
+    <t>Reduces errors and inconsistencies.</t>
+  </si>
+  <si>
+    <t>Phase 3: Testing &amp; Validation</t>
+  </si>
+  <si>
+    <t>Rule-based validation will need stakeholder input.</t>
+  </si>
+  <si>
+    <t>Provide Reports to COOs</t>
+  </si>
+  <si>
+    <t>COO-tailored reports based on integrated data</t>
+  </si>
+  <si>
+    <t>Automate report generation with dashboards and customized views for COOs.</t>
+  </si>
+  <si>
+    <t>Ensures consistent format and data across all reports.</t>
+  </si>
+  <si>
+    <t>Phase 4: Reporting</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Focus on making reports dynamic and relevant to each COO’s needs.</t>
+  </si>
+  <si>
+    <t>Adjustments &amp; Reconciliation</t>
+  </si>
+  <si>
+    <t>Adjustment requests from teams</t>
+  </si>
+  <si>
+    <t>Automate tracking and reconciliation of adjustment requests via an adjustment file.</t>
+  </si>
+  <si>
+    <t>Ensures all adjustments are reflected in final reports.</t>
+  </si>
+  <si>
+    <t>Need clear protocols on how and when adjustments are made.</t>
+  </si>
+  <si>
+    <t>Additional Notes:</t>
+  </si>
+  <si>
+    <r>
+      <t>Data Sources Identification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with the BMs to identify primary data sources and any potential backups. Once sources are confirmed, automate the extraction process.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Automation Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Focus initially on data extraction and validation; then move to reporting automation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Current Challenges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: High effort currently required for manual data collection and tracking, but automation will reduce this significantly.</t>
+    </r>
+  </si>
+  <si>
+    <t>This table focuses on streamlining data collection and identifies automation opportunities to help reduce manual work and increase accuracy. Would you like to include any specific tools or technologies in this table?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +566,19 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -412,13 +626,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,18 +962,18 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.5" customHeight="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -754,7 +986,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -762,7 +994,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -770,7 +1002,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -778,7 +1010,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -786,7 +1018,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -794,7 +1026,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -802,7 +1034,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -810,7 +1042,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -818,7 +1050,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -826,7 +1058,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -834,7 +1066,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -842,7 +1074,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" ht="14.5" customHeight="1">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" ht="14.5" customHeight="1">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -870,17 +1102,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -896,7 +1128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -904,7 +1136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -912,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -931,12 +1163,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="51.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -944,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -952,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -960,7 +1192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -968,7 +1200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -976,7 +1208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -984,7 +1216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -992,7 +1224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1000,7 +1232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1016,7 +1248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1045,14 +1277,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1074,7 +1306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1085,7 +1317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1107,9 +1339,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1120,7 +1352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1131,7 +1363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1142,7 +1374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1153,7 +1385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1164,7 +1396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1175,7 +1407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1186,7 +1418,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1197,7 +1429,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1208,7 +1440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1230,9 +1462,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1246,7 +1478,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1260,7 +1492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1274,7 +1506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1288,7 +1520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1302,7 +1534,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -1314,6 +1546,210 @@
       </c>
       <c r="D6" t="s">
         <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7DBE5C-607E-45CD-A094-D15066DA4AC5}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="58">
+      <c r="A1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="159.5">
+      <c r="A2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="174">
+      <c r="A3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="159.5">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="116">
+      <c r="A5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="145">
+      <c r="A6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="174">
+      <c r="A7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.5">
+      <c r="A9" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
